--- a/data/long_dif/P23_4-Urba-long_dif.xlsx
+++ b/data/long_dif/P23_4-Urba-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,59%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>11,29%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16,94%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17,11%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20,46%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13,26%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15,01%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17,06%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,53; 30,88</t>
+          <t>19,64; 31,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,81; 18,93</t>
+          <t>12,12; 19,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,94; 20,94</t>
+          <t>9,64; 17,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,22; 13,72</t>
+          <t>13,0; 21,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,68; 24,52</t>
+          <t>13,75; 20,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,03; 15,05</t>
+          <t>9,27; 13,88</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13,52; 21,02</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13,33; 22,09</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>17,53; 24,04</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11,4; 15,3</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12,44; 17,62</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14,28; 20,59</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>59,1%</t>
+          <t>58,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>69,38%</t>
+          <t>68,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>69,08%</t>
+          <t>66,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>68,88%</t>
+          <t>62,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>64,32%</t>
+          <t>69,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>69,12%</t>
+          <t>69,64%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>65,62%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>64,05%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>64,25%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>69,23%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>66,23%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>63,46%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,91; 64,42</t>
+          <t>51,34; 63,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63,09; 74,14</t>
+          <t>62,23; 73,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,48; 73,04</t>
+          <t>61,17; 72,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>64,34; 72,97</t>
+          <t>56,83; 68,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>59,61; 67,84</t>
+          <t>65,36; 73,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,35; 72,03</t>
+          <t>65,5; 73,39</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>60,78; 70,15</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>59,17; 68,86</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>59,81; 67,55</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>65,24; 71,98</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>62,52; 70,13</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>59,51; 67,07</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>17,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>19,07%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>17,44%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18,84%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15,29%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>17,51%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>18,76%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>19,49%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,85; 22,88</t>
+          <t>13,64; 24,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,09; 23,51</t>
+          <t>11,95; 24,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,55; 16,92</t>
+          <t>15,53; 25,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,33; 24,8</t>
+          <t>15,37; 25,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,47; 18,09</t>
+          <t>10,37; 16,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,29; 21,82</t>
+          <t>16,21; 23,15</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>14,06; 21,17</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15,31; 22,91</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>12,9; 18,86</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15,15; 21,43</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>15,98; 21,75</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>16,67; 22,61</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,64; 21,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,95; 23,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,15; 27,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,78; 18,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,74; 22,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,87; 19,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>67,39%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>68,32%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>61,62%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>67,67%</t>
+          <t>19,87%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>64,49%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>68,0%</t>
+          <t>14,87%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17,77%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14,32%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19,06%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16,57%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15,79%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>17,34%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>61,33; 73,14</t>
+          <t>12,85; 21,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>62,33; 72,81</t>
+          <t>14,05; 23,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>55,85; 66,98</t>
+          <t>10,18; 18,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>63,43; 72,16</t>
+          <t>12,3; 29,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>60,44; 68,78</t>
+          <t>17,03; 27,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,76; 71,3</t>
+          <t>11,82; 18,49</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14,17; 22,21</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8,02; 22,05</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15,93; 22,51</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>13,8; 19,44</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>12,98; 19,2</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12,45; 23,34</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>66,74%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>67,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>64,43%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,76%</t>
+          <t>62,93%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>61,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>66,95%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>63,28%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>62,2%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>64,01%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>67,37%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>63,86%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>62,59%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,27; 21,9</t>
+          <t>60,27; 72,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,8; 18,24</t>
+          <t>61,49; 72,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,6; 20,71</t>
+          <t>56,91; 70,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,17; 21,3</t>
+          <t>51,3; 73,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,75; 19,6</t>
+          <t>55,49; 66,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,13; 18,51</t>
+          <t>62,54; 71,01</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>57,64; 68,5</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>53,0; 71,74</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>59,99; 67,93</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>63,73; 70,59</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>59,06; 67,82</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>55,45; 69,26</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>18,18%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>18,94%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>23,49%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>16,93%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>16,06%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>20,35%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>20,07%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,2; 29,04</t>
+          <t>12,65; 22,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,18; 23,58</t>
+          <t>10,5; 18,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,36; 30,33</t>
+          <t>16,8; 29,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,42; 22,31</t>
+          <t>10,46; 25,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,68; 26,17</t>
+          <t>13,78; 21,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,24; 20,72</t>
+          <t>15,05; 22,64</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>14,94; 23,89</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>16,28; 31,96</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>14,26; 20,1</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>13,58; 19,28</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>17,02; 24,88</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>15,05; 26,08</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>66,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>65,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>57,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>68,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>61,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>66,91%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>55,56; 77,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>53,09; 74,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>47,38; 66,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>60,21; 76,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>54,04; 69,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>59,77; 72,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>15,2%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>14,77%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>19,24%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>15,59%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>16,54%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,07; 26,05</t>
+          <t>10,42; 29,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,16; 31,54</t>
+          <t>9,62; 24,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,55; 32,34</t>
+          <t>7,13; 37,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,74; 24,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>13,45; 25,1</t>
+          <t>12,46; 29,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,53; 25,14</t>
+          <t>9,86; 21,92</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>8,72; 22,88</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>13,86; 26,13</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>11,27; 20,89</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>10,16; 26,44</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>66,44%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>64,79%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>53,33%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>56,93%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>68,04%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>71,57%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>61,76%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>66,4%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>62,59%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>17,37; 24,49</t>
+          <t>53,74; 76,76</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>13,82; 19,05</t>
+          <t>53,28; 74,38</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>16,75; 22,11</t>
+          <t>34,32; 70,92</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,23; 15,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>17,69; 22,21</t>
+          <t>47,51; 66,68</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>12,92; 16,09</t>
+          <t>59,57; 75,48</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>61,68; 79,98</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>54,02; 69,15</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>58,94; 72,62</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>49,4; 71,45</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>63,3%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>68,52%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>64,87%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>68,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>64,1%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>68,42%</t>
+          <t>16,75%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>13,66%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>19,0%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>18,0%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>20,87%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>58,64; 66,7</t>
+          <t>9,3; 26,08</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>64,06; 71,47</t>
+          <t>11,36; 32,22</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>61,92; 68,17</t>
+          <t>13,97; 54,09</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>65,24; 70,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>61,33; 66,62</t>
+          <t>15,59; 32,1</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>65,76; 70,52</t>
+          <t>11,03; 23,99</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>7,12; 21,93</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>13,33; 25,32</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>13,02; 25,91</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>12,89; 35,06</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +2228,630 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>13,49; 19,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>12,8; 19,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>13,57; 18,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>16,47; 21,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>14,29; 18,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>15,23; 19,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>20,43%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>16,64%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>13,89%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>17,69%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>19,13%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>13,09%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>17,01%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>16,55%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>19,77%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>14,82%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>15,49%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>17,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>17,23; 24,35</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>14,24; 19,34</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>11,13; 17,34</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>14,33; 21,86</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>16,79; 22,35</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>11,06; 14,89</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>14,64; 19,78</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>13,41; 20,69</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>17,75; 22,11</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>13,32; 16,66</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>13,66; 17,95</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>14,78; 20,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>62,59%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>67,89%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>64,31%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>62,85%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>65,08%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>68,44%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>65,41%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>63,68%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>63,86%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>68,17%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>64,88%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>63,27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>57,95; 66,23</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>64,05; 71,42</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>59,34; 68,84</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>57,56; 68,12</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>61,91; 68,05</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>65,45; 71,1</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>61,98; 68,34</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>58,71; 67,78</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>60,78; 66,37</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>65,87; 70,27</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>61,96; 67,58</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>59,87; 66,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>16,98%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>15,46%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>21,8%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>19,46%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>15,79%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>18,47%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>17,58%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>19,77%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>16,37%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>17,01%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>19,63%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>19,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>14,21; 20,32</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>12,93; 19,71</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>18,26; 26,84</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>15,51; 23,66</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>13,51; 18,18</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>16,17; 21,07</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>14,95; 20,03</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>16,48; 23,67</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>14,6; 18,42</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>15,19; 19,25</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>17,44; 22,56</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>16,99; 22,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P23_4-Urba-long_dif.xlsx
+++ b/data/long_dif/P23_4-Urba-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -788,7 +788,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -920,7 +920,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1188,7 +1188,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1570,7 +1570,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1684,7 +1684,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1934,7 +1934,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2066,7 +2066,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
